--- a/RutaCritica/MallaCurricular2020.xlsx
+++ b/RutaCritica/MallaCurricular2020.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24234F7-C24D-4D5C-9755-3200F072EC31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B394DAC0-574D-43E9-9E81-BCC73E30193C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2020" sheetId="1" r:id="rId1"/>
     <sheet name="Electivos" sheetId="2" r:id="rId2"/>
+    <sheet name="Equivalencias" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="320">
   <si>
     <t>CBM1000</t>
   </si>
@@ -246,9 +247,6 @@
     <t>COMUNICACIÓN PARA LA INGENIERÍA</t>
   </si>
   <si>
-    <t>INGLÉS I</t>
-  </si>
-  <si>
     <t>INGLÉS II</t>
   </si>
   <si>
@@ -351,9 +349,6 @@
     <t>CIG1013</t>
   </si>
   <si>
-    <t>INGLÉS III</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -567,9 +562,6 @@
     <t>CIT2000, CIT2001</t>
   </si>
   <si>
-    <t>FIC1001</t>
-  </si>
-  <si>
     <t>FIC1002</t>
   </si>
   <si>
@@ -961,6 +953,48 @@
   </si>
   <si>
     <t>CIT2102, CIT2200</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL II</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL III</t>
+  </si>
+  <si>
+    <t>Malla 2010</t>
+  </si>
+  <si>
+    <t>Malla 2020</t>
+  </si>
+  <si>
+    <t>ESTRUCTURAS DE DATOS</t>
+  </si>
+  <si>
+    <t>MÉTODOS NUMÉRICOS</t>
+  </si>
+  <si>
+    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
+  </si>
+  <si>
+    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
+  </si>
+  <si>
+    <t>SISTEMAS DIGITALES</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE COMPUTADORES</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>PROYECTO EN TICS III</t>
+  </si>
+  <si>
+    <t>3, 5, 10, 26, 29, 32, 33, 34, 38, 39, 40, 41, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1133,13 +1167,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1183,6 +1226,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1514,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1577,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>39</v>
@@ -1546,10 +1592,10 @@
         <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1563,13 +1609,13 @@
         <v>49</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G3" s="21"/>
     </row>
@@ -1584,13 +1630,13 @@
         <v>50</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E4" s="21">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G4" s="21"/>
     </row>
@@ -1605,13 +1651,13 @@
         <v>55</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="21">
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G5" s="21"/>
     </row>
@@ -1626,13 +1672,13 @@
         <v>58</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E6" s="21">
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G6" s="21"/>
     </row>
@@ -1647,13 +1693,13 @@
         <v>69</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" s="21">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G7" s="21"/>
     </row>
@@ -1668,13 +1714,13 @@
         <v>51</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E8" s="22">
         <v>2</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G8" s="22"/>
     </row>
@@ -1689,13 +1735,13 @@
         <v>52</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E9" s="22">
         <v>2</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G9" s="22"/>
     </row>
@@ -1710,13 +1756,13 @@
         <v>46</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G10" s="22"/>
     </row>
@@ -1737,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G11" s="22"/>
     </row>
@@ -1752,13 +1798,13 @@
         <v>45</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E12" s="22">
         <v>2</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G12" s="22"/>
     </row>
@@ -1773,13 +1819,13 @@
         <v>53</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E13" s="23">
         <v>3</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -1794,13 +1840,13 @@
         <v>54</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E14" s="23">
         <v>3</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="23"/>
     </row>
@@ -1815,13 +1861,13 @@
         <v>47</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E15" s="23">
         <v>3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="23"/>
     </row>
@@ -1830,22 +1876,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E16" s="23">
         <v>3</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1853,19 +1899,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E17" s="23">
         <v>3</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>12</v>
@@ -1879,16 +1925,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="24">
         <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="24"/>
     </row>
@@ -1897,10 +1943,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>44</v>
@@ -1909,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>17</v>
@@ -1926,13 +1972,13 @@
         <v>48</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E20" s="24">
         <v>4</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" s="24"/>
     </row>
@@ -1941,19 +1987,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E21" s="24">
         <v>4</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>19</v>
@@ -1964,22 +2010,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E22" s="24">
         <v>4</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1987,22 +2033,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>70</v>
+        <v>306</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E23" s="24">
         <v>4</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2016,13 +2062,13 @@
         <v>57</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E24" s="25">
         <v>5</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="25"/>
     </row>
@@ -2031,22 +2077,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E25" s="25">
         <v>5</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2054,19 +2100,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E26" s="25">
         <v>5</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>18</v>
@@ -2077,22 +2123,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E27" s="25">
         <v>5</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2106,13 +2152,13 @@
         <v>45</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E28" s="25">
         <v>5</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G28" s="25"/>
     </row>
@@ -2121,23 +2167,21 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>71</v>
+        <v>307</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E29" s="25">
         <v>5</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>178</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G29" s="25"/>
       <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2151,13 +2195,13 @@
         <v>56</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G30" s="26"/>
     </row>
@@ -2166,22 +2210,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2189,19 +2233,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E32" s="26">
         <v>6</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>21</v>
@@ -2212,19 +2256,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E33" s="26">
         <v>6</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>22</v>
@@ -2241,13 +2285,13 @@
         <v>45</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E34" s="26">
         <v>6</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G34" s="26"/>
     </row>
@@ -2256,19 +2300,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>105</v>
+        <v>308</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E35" s="26">
         <v>6</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G35" s="26"/>
     </row>
@@ -2277,19 +2321,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E36" s="27">
         <v>7</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G36" s="27" t="s">
         <v>27</v>
@@ -2300,22 +2344,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E37" s="27">
         <v>7</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2323,19 +2367,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E38" s="27">
         <v>7</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G38" s="27" t="s">
         <v>25</v>
@@ -2346,19 +2390,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E39" s="27">
         <v>7</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G39" s="27" t="s">
         <v>24</v>
@@ -2375,13 +2419,13 @@
         <v>45</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E40" s="27">
         <v>7</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G40" s="27"/>
     </row>
@@ -2390,19 +2434,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E41" s="28">
         <v>8</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -2413,22 +2457,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E42" s="28">
         <v>8</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2436,19 +2480,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E43" s="28">
         <v>8</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>29</v>
@@ -2459,22 +2503,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E44" s="28">
         <v>8</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2482,19 +2526,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E45" s="28">
         <v>8</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>34</v>
@@ -2508,16 +2552,16 @@
         <v>31</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E46" s="29">
         <v>9</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G46" s="29"/>
     </row>
@@ -2526,19 +2570,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E47" s="29">
         <v>9</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G47" s="29"/>
     </row>
@@ -2550,16 +2594,16 @@
         <v>32</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E48" s="29">
         <v>9</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G48" s="29"/>
     </row>
@@ -2568,19 +2612,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E49" s="29">
         <v>9</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>28</v>
@@ -2591,19 +2635,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E50" s="29">
         <v>9</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G50" s="29" t="s">
         <v>30</v>
@@ -2617,16 +2661,16 @@
         <v>35</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E51" s="30">
         <v>10</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G51" s="30"/>
     </row>
@@ -2638,16 +2682,16 @@
         <v>33</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E52" s="30">
         <v>10</v>
       </c>
       <c r="F52" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G52" s="30"/>
     </row>
@@ -2659,16 +2703,16 @@
         <v>37</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E53" s="30">
         <v>10</v>
       </c>
       <c r="F53" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G53" s="30"/>
     </row>
@@ -2680,16 +2724,16 @@
         <v>36</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E54" s="30">
         <v>10</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G54" s="30"/>
     </row>
@@ -2698,42 +2742,42 @@
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E55" s="30">
         <v>10</v>
       </c>
       <c r="F55" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G55" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E56" s="30">
         <v>11</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>172</v>
+        <v>319</v>
       </c>
       <c r="G56" s="30"/>
     </row>
@@ -2748,7 +2792,7 @@
   <dimension ref="A2:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F55"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,22 +2807,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>186</v>
-      </c>
       <c r="F2" s="37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2786,10 +2830,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>30</v>
@@ -2804,10 +2848,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>28</v>
@@ -2822,10 +2866,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>19</v>
@@ -2834,7 +2878,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2842,10 +2886,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>24</v>
@@ -2860,10 +2904,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>30</v>
@@ -2878,10 +2922,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>24</v>
@@ -2896,13 +2940,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E9" s="39">
         <v>54</v>
@@ -2914,19 +2958,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E10" s="39">
         <v>54</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,13 +2978,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E11" s="39">
         <v>54</v>
@@ -2952,19 +2996,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E12" s="39">
         <v>54</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2972,13 +3016,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E13" s="39">
         <v>54</v>
@@ -2990,13 +3034,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E14" s="39">
         <v>54</v>
@@ -3008,10 +3052,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>19</v>
@@ -3026,10 +3070,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>30</v>
@@ -3044,10 +3088,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>30</v>
@@ -3062,10 +3106,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>19</v>
@@ -3080,10 +3124,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39">
@@ -3096,13 +3140,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E20" s="39">
         <v>54</v>
@@ -3114,13 +3158,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E21" s="39">
         <v>54</v>
@@ -3132,13 +3176,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E22" s="39">
         <v>54</v>
@@ -3150,10 +3194,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>15</v>
@@ -3168,19 +3212,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E24" s="39">
         <v>54</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3188,13 +3232,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E25" s="39">
         <v>54</v>
@@ -3206,13 +3250,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E26" s="39">
         <v>54</v>
@@ -3224,10 +3268,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>30</v>
@@ -3242,13 +3286,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E28" s="39">
         <v>54</v>
@@ -3260,13 +3304,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D29" s="38" t="s">
         <v>250</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>253</v>
       </c>
       <c r="E29" s="39">
         <v>54</v>
@@ -3278,10 +3322,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>24</v>
@@ -3296,10 +3340,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>19</v>
@@ -3314,13 +3358,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E32" s="39">
         <v>54</v>
@@ -3332,10 +3376,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>30</v>
@@ -3344,7 +3388,7 @@
         <v>54</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3352,13 +3396,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E34" s="39">
         <v>54</v>
@@ -3370,10 +3414,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>24</v>
@@ -3388,10 +3432,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>24</v>
@@ -3406,13 +3450,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E37" s="39">
         <v>54</v>
@@ -3424,13 +3468,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E38" s="39">
         <v>54</v>
@@ -3442,13 +3486,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E39" s="39">
         <v>54</v>
@@ -3460,10 +3504,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>29</v>
@@ -3478,13 +3522,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E41" s="39">
         <v>54</v>
@@ -3496,10 +3540,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>25</v>
@@ -3514,10 +3558,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>30</v>
@@ -3532,10 +3576,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>25</v>
@@ -3550,10 +3594,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>29</v>
@@ -3568,13 +3612,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E46" s="39">
         <v>54</v>
@@ -3586,13 +3630,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E47" s="39">
         <v>54</v>
@@ -3604,10 +3648,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>25</v>
@@ -3622,13 +3666,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E49" s="39">
         <v>54</v>
@@ -3640,13 +3684,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E50" s="39">
         <v>54</v>
@@ -3658,10 +3702,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>29</v>
@@ -3676,10 +3720,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>19</v>
@@ -3694,10 +3738,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>26</v>
@@ -3712,10 +3756,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>25</v>
@@ -3724,7 +3768,7 @@
         <v>54</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3732,18 +3776,125 @@
         <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="E55" s="39">
+        <v>54</v>
+      </c>
+      <c r="F55" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88EE29A-A5F1-4EDD-B2D2-BD029E8CFEAA}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="E55" s="39">
-        <v>54</v>
-      </c>
-      <c r="F55" s="40"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RutaCritica/MallaCurricular2020.xlsx
+++ b/RutaCritica/MallaCurricular2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B394DAC0-574D-43E9-9E81-BCC73E30193C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92D354A-017C-46D7-8B03-698359F19FA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2020" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="301">
   <si>
     <t>CBM1000</t>
   </si>
@@ -73,9 +73,6 @@
     <t>CBF1001</t>
   </si>
   <si>
-    <t>CIT2100</t>
-  </si>
-  <si>
     <t>CIT2204</t>
   </si>
   <si>
@@ -88,24 +85,9 @@
     <t>CII2750</t>
   </si>
   <si>
-    <t>CIT2106</t>
-  </si>
-  <si>
-    <t>CIT2200</t>
-  </si>
-  <si>
     <t>CIT2002</t>
   </si>
   <si>
-    <t>CII2000</t>
-  </si>
-  <si>
-    <t>CIT2101</t>
-  </si>
-  <si>
-    <t>CIT2003</t>
-  </si>
-  <si>
     <t>CII1000</t>
   </si>
   <si>
@@ -118,9 +100,6 @@
     <t>CIT2104</t>
   </si>
   <si>
-    <t>CIT2203</t>
-  </si>
-  <si>
     <t>CIT2004</t>
   </si>
   <si>
@@ -130,30 +109,6 @@
     <t>CIT2201</t>
   </si>
   <si>
-    <t>CIT33XX-1</t>
-  </si>
-  <si>
-    <t>CIT34XX-1</t>
-  </si>
-  <si>
-    <t>CIT34XX-2</t>
-  </si>
-  <si>
-    <t>CIT3200</t>
-  </si>
-  <si>
-    <t>CIT33XX-2</t>
-  </si>
-  <si>
-    <t>CIT33XX-3</t>
-  </si>
-  <si>
-    <t>CIT34XX-3</t>
-  </si>
-  <si>
-    <t>CIT3201</t>
-  </si>
-  <si>
     <t>Código</t>
   </si>
   <si>
@@ -280,9 +235,6 @@
     <t>Prerreq</t>
   </si>
   <si>
-    <t>Equivalencias</t>
-  </si>
-  <si>
     <t>CIT2109</t>
   </si>
   <si>
@@ -550,30 +502,15 @@
     <t>0</t>
   </si>
   <si>
-    <t>CIT2103, CIT2104</t>
-  </si>
-  <si>
     <t>CIT3317</t>
   </si>
   <si>
-    <t>CBM2000, CIT3322, CIT3323</t>
-  </si>
-  <si>
-    <t>CIT2000, CIT2001</t>
-  </si>
-  <si>
-    <t>FIC1002</t>
-  </si>
-  <si>
     <t>CIT3346</t>
   </si>
   <si>
     <t>CIT3342</t>
   </si>
   <si>
-    <t>CIT2202, CIT3425</t>
-  </si>
-  <si>
     <t>CIT3417</t>
   </si>
   <si>
@@ -995,6 +932,12 @@
   </si>
   <si>
     <t>3, 5, 10, 26, 29, 32, 33, 34, 38, 39, 40, 41, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53</t>
+  </si>
+  <si>
+    <t>CIT33XX</t>
+  </si>
+  <si>
+    <t>CIT34XX</t>
   </si>
 </sst>
 </file>
@@ -1036,6 +979,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1129,7 +1073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1167,22 +1111,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1226,9 +1161,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1560,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,30 +1507,27 @@
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1606,20 +1535,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1627,20 +1555,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E4" s="21">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1648,20 +1575,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E5" s="21">
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1669,20 +1595,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E6" s="21">
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1690,20 +1615,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E7" s="21">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1711,20 +1635,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E8" s="22">
         <v>2</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1732,20 +1655,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E9" s="22">
         <v>2</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1753,20 +1675,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1774,41 +1695,39 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E11" s="22">
         <v>2</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E12" s="22">
         <v>2</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1816,20 +1735,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E13" s="23">
         <v>3</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1837,20 +1755,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E14" s="23">
         <v>3</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1858,40 +1775,36 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E15" s="23">
         <v>3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E16" s="23">
         <v>3</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1899,22 +1812,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E17" s="23">
         <v>3</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1922,43 +1832,39 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E18" s="24">
         <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="24"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E19" s="24">
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1966,43 +1872,39 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E20" s="24">
         <v>4</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="24"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E21" s="24">
         <v>4</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2010,22 +1912,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E22" s="24">
         <v>4</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2033,22 +1932,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E23" s="24">
         <v>4</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2056,43 +1952,39 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E24" s="25">
         <v>5</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="25"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E25" s="25">
         <v>5</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2100,22 +1992,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E26" s="25">
         <v>5</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2123,22 +2012,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E27" s="25">
         <v>5</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2146,42 +2032,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E28" s="25">
         <v>5</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="G28" s="25"/>
+        <v>154</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E29" s="25">
         <v>5</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="25"/>
+        <v>122</v>
+      </c>
       <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2189,43 +2073,39 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30" s="26"/>
+        <v>114</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2233,553 +2113,500 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E32" s="26">
         <v>6</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E33" s="26">
         <v>6</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E34" s="26">
         <v>6</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E35" s="26">
         <v>6</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E36" s="27">
         <v>7</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E37" s="27">
         <v>7</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E38" s="27">
         <v>7</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E39" s="27">
         <v>7</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E40" s="27">
         <v>7</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E41" s="28">
         <v>8</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E42" s="28">
         <v>8</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="E43" s="28">
         <v>8</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E44" s="28">
         <v>8</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E45" s="28">
         <v>8</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>31</v>
+        <v>299</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E46" s="29">
         <v>9</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E47" s="29">
         <v>9</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E48" s="29">
         <v>9</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E49" s="29">
         <v>9</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E50" s="29">
         <v>9</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>35</v>
+        <v>299</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E51" s="30">
         <v>10</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" s="30"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E52" s="30">
         <v>10</v>
       </c>
       <c r="F52" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="G52" s="30"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E53" s="30">
         <v>10</v>
       </c>
       <c r="F53" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="G53" s="30"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>36</v>
+        <v>299</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E54" s="30">
         <v>10</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="G54" s="30"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E55" s="30">
         <v>10</v>
       </c>
       <c r="F55" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E56" s="30">
         <v>11</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="G56" s="30"/>
+        <v>298</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2791,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F44E877-0DE8-4D93-88A9-15DC654C355E}">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
@@ -2807,22 +2634,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2830,13 +2657,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E3" s="39">
         <v>54</v>
@@ -2848,13 +2675,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" s="39">
         <v>54</v>
@@ -2866,19 +2693,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="39">
         <v>54</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2886,13 +2713,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6" s="39">
         <v>54</v>
@@ -2904,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E7" s="39">
         <v>54</v>
@@ -2922,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E8" s="39">
         <v>54</v>
@@ -2940,13 +2767,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E9" s="39">
         <v>54</v>
@@ -2958,19 +2785,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E10" s="39">
         <v>54</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2978,13 +2805,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E11" s="39">
         <v>54</v>
@@ -2996,19 +2823,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="E12" s="39">
         <v>54</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3016,13 +2843,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="E13" s="39">
         <v>54</v>
@@ -3034,13 +2861,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E14" s="39">
         <v>54</v>
@@ -3052,13 +2879,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E15" s="39">
         <v>54</v>
@@ -3070,13 +2897,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E16" s="39">
         <v>54</v>
@@ -3088,13 +2915,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E17" s="39">
         <v>54</v>
@@ -3106,13 +2933,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E18" s="39">
         <v>54</v>
@@ -3124,10 +2951,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39">
@@ -3140,13 +2967,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E20" s="39">
         <v>54</v>
@@ -3158,13 +2985,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E21" s="39">
         <v>54</v>
@@ -3176,13 +3003,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="E22" s="39">
         <v>54</v>
@@ -3194,13 +3021,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="39">
         <v>54</v>
@@ -3212,19 +3039,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="E24" s="39">
         <v>54</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3232,13 +3059,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="E25" s="39">
         <v>54</v>
@@ -3250,13 +3077,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="E26" s="39">
         <v>54</v>
@@ -3268,13 +3095,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E27" s="39">
         <v>54</v>
@@ -3286,13 +3113,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="E28" s="39">
         <v>54</v>
@@ -3304,13 +3131,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E29" s="39">
         <v>54</v>
@@ -3322,13 +3149,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E30" s="39">
         <v>54</v>
@@ -3340,13 +3167,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E31" s="39">
         <v>54</v>
@@ -3358,13 +3185,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="E32" s="39">
         <v>54</v>
@@ -3376,19 +3203,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E33" s="39">
         <v>54</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3396,13 +3223,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="E34" s="39">
         <v>54</v>
@@ -3414,13 +3241,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E35" s="39">
         <v>54</v>
@@ -3432,13 +3259,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E36" s="39">
         <v>54</v>
@@ -3450,13 +3277,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E37" s="39">
         <v>54</v>
@@ -3468,13 +3295,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="E38" s="39">
         <v>54</v>
@@ -3486,13 +3313,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="E39" s="39">
         <v>54</v>
@@ -3504,13 +3331,13 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E40" s="39">
         <v>54</v>
@@ -3522,13 +3349,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E41" s="39">
         <v>54</v>
@@ -3540,13 +3367,13 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E42" s="39">
         <v>54</v>
@@ -3558,13 +3385,13 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E43" s="39">
         <v>54</v>
@@ -3576,13 +3403,13 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E44" s="39">
         <v>54</v>
@@ -3594,13 +3421,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E45" s="39">
         <v>54</v>
@@ -3612,13 +3439,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="E46" s="39">
         <v>54</v>
@@ -3630,13 +3457,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="E47" s="39">
         <v>54</v>
@@ -3648,13 +3475,13 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E48" s="39">
         <v>54</v>
@@ -3666,13 +3493,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E49" s="39">
         <v>54</v>
@@ -3684,13 +3511,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E50" s="39">
         <v>54</v>
@@ -3702,13 +3529,13 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E51" s="39">
         <v>54</v>
@@ -3720,13 +3547,13 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E52" s="39">
         <v>54</v>
@@ -3738,13 +3565,13 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E53" s="39">
         <v>54</v>
@@ -3756,19 +3583,19 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E54" s="39">
         <v>54</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3776,13 +3603,13 @@
         <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="E55" s="39">
         <v>54</v>
@@ -3798,7 +3625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88EE29A-A5F1-4EDD-B2D2-BD029E8CFEAA}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3810,90 +3637,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>110</v>
+        <v>291</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/RutaCritica/MallaCurricular2020.xlsx
+++ b/RutaCritica/MallaCurricular2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92D354A-017C-46D7-8B03-698359F19FA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2583E10D-3659-450E-97D6-0FC30FAF08A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="7515" yWindow="2895" windowWidth="18000" windowHeight="9810" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2020" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="290">
   <si>
     <t>CBM1000</t>
   </si>
@@ -202,9 +202,6 @@
     <t>COMUNICACIÓN PARA LA INGENIERÍA</t>
   </si>
   <si>
-    <t>INGLÉS II</t>
-  </si>
-  <si>
     <t>PROBABILIDADES Y ESTADÍSTICAS</t>
   </si>
   <si>
@@ -899,36 +896,6 @@
   </si>
   <si>
     <t>INGLÉS GENERAL III</t>
-  </si>
-  <si>
-    <t>Malla 2010</t>
-  </si>
-  <si>
-    <t>Malla 2020</t>
-  </si>
-  <si>
-    <t>ESTRUCTURAS DE DATOS</t>
-  </si>
-  <si>
-    <t>MÉTODOS NUMÉRICOS</t>
-  </si>
-  <si>
-    <t>DISEÑO Y ANÁLISIS DE ALGORITMOS</t>
-  </si>
-  <si>
-    <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
-  </si>
-  <si>
-    <t>SISTEMAS DIGITALES</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE COMPUTADORES</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE SISTEMAS</t>
-  </si>
-  <si>
-    <t>PROYECTO EN TICS III</t>
   </si>
   <si>
     <t>3, 5, 10, 26, 29, 32, 33, 34, 38, 39, 40, 41, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53</t>
@@ -1163,7 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{B2ADFDE5-ED7C-4043-8FB7-59A01FC772F5}"/>
   </cellStyles>
@@ -1194,7 +1161,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1492,11 +1459,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -1509,7 +1476,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>24</v>
@@ -1524,7 +1491,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1538,13 +1505,13 @@
         <v>34</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1558,13 +1525,13 @@
         <v>35</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="21">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1578,13 +1545,13 @@
         <v>40</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="21">
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1598,13 +1565,13 @@
         <v>43</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="21">
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,13 +1585,13 @@
         <v>54</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="21">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,13 +1605,13 @@
         <v>36</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="22">
         <v>2</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1658,13 +1625,13 @@
         <v>37</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="22">
         <v>2</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1678,13 +1645,13 @@
         <v>31</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1718,13 +1685,13 @@
         <v>30</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="22">
         <v>2</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1738,13 +1705,13 @@
         <v>38</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="23">
         <v>3</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,13 +1725,13 @@
         <v>39</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" s="23">
         <v>3</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1778,13 +1745,13 @@
         <v>32</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="23">
         <v>3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,19 +1759,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="23">
         <v>3</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1812,19 +1779,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" s="23">
         <v>3</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1835,16 +1802,16 @@
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="24">
         <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1852,10 +1819,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>29</v>
@@ -1864,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1878,13 +1845,13 @@
         <v>33</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="24">
         <v>4</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1892,19 +1859,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="24">
         <v>4</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1912,19 +1879,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="24">
         <v>4</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1932,19 +1899,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="24">
         <v>4</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1958,13 +1925,13 @@
         <v>42</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" s="25">
         <v>5</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1972,19 +1939,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E25" s="25">
         <v>5</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1992,19 +1959,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="25">
         <v>5</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2012,19 +1979,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E27" s="25">
         <v>5</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2038,13 +2005,13 @@
         <v>30</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="25">
         <v>5</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2052,19 +2019,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E29" s="25">
         <v>5</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J29" s="31"/>
     </row>
@@ -2079,13 +2046,13 @@
         <v>41</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2093,19 +2060,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2113,19 +2080,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" s="26">
         <v>6</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2133,19 +2100,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="26">
         <v>6</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,13 +2126,13 @@
         <v>30</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" s="26">
         <v>6</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2173,19 +2140,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35" s="26">
         <v>6</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2193,19 +2160,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" s="27">
         <v>7</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,19 +2180,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E37" s="27">
         <v>7</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2233,19 +2200,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E38" s="27">
         <v>7</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2253,19 +2220,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E39" s="27">
         <v>7</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2279,13 +2246,13 @@
         <v>30</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="27">
         <v>7</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2293,19 +2260,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" s="28">
         <v>8</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2313,19 +2280,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42" s="28">
         <v>8</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2333,19 +2300,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" s="28">
         <v>8</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2353,19 +2320,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E44" s="28">
         <v>8</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2373,19 +2340,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E45" s="28">
         <v>8</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2393,19 +2360,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E46" s="29">
         <v>9</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2413,19 +2380,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E47" s="29">
         <v>9</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2433,19 +2400,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E48" s="29">
         <v>9</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2453,19 +2420,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49" s="29">
         <v>9</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2473,19 +2440,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" s="29">
         <v>9</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2493,19 +2460,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E51" s="30">
         <v>10</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2513,19 +2480,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="30">
         <v>10</v>
       </c>
       <c r="F52" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2533,19 +2500,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" s="30">
         <v>10</v>
       </c>
       <c r="F53" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2553,19 +2520,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" s="30">
         <v>10</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2573,19 +2540,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E55" s="30">
         <v>10</v>
       </c>
       <c r="F55" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2593,19 +2560,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E56" s="30">
         <v>11</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2622,7 +2589,7 @@
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
@@ -2634,22 +2601,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>162</v>
-      </c>
       <c r="F2" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2657,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>23</v>
@@ -2675,10 +2642,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>21</v>
@@ -2693,10 +2660,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>16</v>
@@ -2705,7 +2672,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2713,10 +2680,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>18</v>
@@ -2731,10 +2698,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>23</v>
@@ -2749,10 +2716,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>18</v>
@@ -2767,13 +2734,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="38" t="s">
         <v>178</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>179</v>
       </c>
       <c r="E9" s="39">
         <v>54</v>
@@ -2785,19 +2752,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>182</v>
-      </c>
       <c r="E10" s="39">
         <v>54</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2805,13 +2772,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="D11" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="39">
         <v>54</v>
@@ -2823,19 +2790,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D12" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E12" s="39">
         <v>54</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2843,13 +2810,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="38" t="s">
         <v>188</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>189</v>
       </c>
       <c r="E13" s="39">
         <v>54</v>
@@ -2861,13 +2828,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="38" t="s">
         <v>191</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>192</v>
       </c>
       <c r="E14" s="39">
         <v>54</v>
@@ -2879,10 +2846,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>16</v>
@@ -2897,10 +2864,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>23</v>
@@ -2915,10 +2882,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>23</v>
@@ -2933,10 +2900,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>16</v>
@@ -2951,10 +2918,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39">
@@ -2967,13 +2934,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="38" t="s">
         <v>204</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>205</v>
       </c>
       <c r="E20" s="39">
         <v>54</v>
@@ -2985,13 +2952,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="D21" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E21" s="39">
         <v>54</v>
@@ -3003,13 +2970,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="38" t="s">
         <v>209</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>210</v>
       </c>
       <c r="E22" s="39">
         <v>54</v>
@@ -3021,10 +2988,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>14</v>
@@ -3039,19 +3006,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>214</v>
-      </c>
       <c r="E24" s="39">
         <v>54</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3059,13 +3026,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="38" t="s">
         <v>216</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>217</v>
       </c>
       <c r="E25" s="39">
         <v>54</v>
@@ -3077,13 +3044,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="38" t="s">
         <v>219</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>220</v>
       </c>
       <c r="E26" s="39">
         <v>54</v>
@@ -3095,10 +3062,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>23</v>
@@ -3113,13 +3080,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="38" t="s">
         <v>224</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>225</v>
       </c>
       <c r="E28" s="39">
         <v>54</v>
@@ -3131,13 +3098,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="D29" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="39">
         <v>54</v>
@@ -3149,10 +3116,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>18</v>
@@ -3167,10 +3134,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>16</v>
@@ -3185,13 +3152,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="D32" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E32" s="39">
         <v>54</v>
@@ -3203,10 +3170,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>23</v>
@@ -3215,7 +3182,7 @@
         <v>54</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3223,13 +3190,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="38" t="s">
         <v>239</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>240</v>
       </c>
       <c r="E34" s="39">
         <v>54</v>
@@ -3241,10 +3208,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>18</v>
@@ -3259,10 +3226,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>18</v>
@@ -3277,13 +3244,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="38" t="s">
         <v>245</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>246</v>
       </c>
       <c r="E37" s="39">
         <v>54</v>
@@ -3295,13 +3262,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="38" t="s">
         <v>248</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>249</v>
       </c>
       <c r="E38" s="39">
         <v>54</v>
@@ -3313,13 +3280,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="38" t="s">
         <v>251</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>252</v>
       </c>
       <c r="E39" s="39">
         <v>54</v>
@@ -3331,10 +3298,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>22</v>
@@ -3349,13 +3316,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="38" t="s">
         <v>256</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>257</v>
       </c>
       <c r="E41" s="39">
         <v>54</v>
@@ -3367,10 +3334,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>19</v>
@@ -3385,10 +3352,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>23</v>
@@ -3403,10 +3370,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>19</v>
@@ -3421,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>22</v>
@@ -3439,13 +3406,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="D46" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E46" s="39">
         <v>54</v>
@@ -3457,13 +3424,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="D47" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E47" s="39">
         <v>54</v>
@@ -3475,10 +3442,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>19</v>
@@ -3493,13 +3460,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="38" t="s">
         <v>273</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>274</v>
       </c>
       <c r="E49" s="39">
         <v>54</v>
@@ -3511,13 +3478,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="38" t="s">
         <v>276</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>277</v>
       </c>
       <c r="E50" s="39">
         <v>54</v>
@@ -3529,10 +3496,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>279</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>22</v>
@@ -3547,10 +3514,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>16</v>
@@ -3565,10 +3532,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>20</v>
@@ -3583,10 +3550,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>19</v>
@@ -3595,7 +3562,7 @@
         <v>54</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3603,13 +3570,13 @@
         <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="D55" s="38" t="s">
         <v>283</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>284</v>
       </c>
       <c r="E55" s="39">
         <v>54</v>
@@ -3625,103 +3592,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88EE29A-A5F1-4EDD-B2D2-BD029E8CFEAA}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>289</v>
-      </c>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="A2" s="40"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="A3" s="40"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="A4" s="40"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>285</v>
-      </c>
+      <c r="A5" s="40"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="A6" s="40"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="A7" s="40"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="A8" s="40"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="A9" s="40"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="A10" s="40"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="A11" s="40"/>
+      <c r="B11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RutaCritica/MallaCurricular2020.xlsx
+++ b/RutaCritica/MallaCurricular2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2583E10D-3659-450E-97D6-0FC30FAF08A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A5F1C2-0647-4CEB-A84C-8EE78AFEB3CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7515" yWindow="2895" windowWidth="18000" windowHeight="9810" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9810" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2020" sheetId="1" r:id="rId1"/>
@@ -1459,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F44E877-0DE8-4D93-88A9-15DC654C355E}">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,8 +2594,8 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2610,10 +2610,10 @@
         <v>159</v>
       </c>
       <c r="D2" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>160</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>161</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>168</v>
@@ -2629,11 +2629,11 @@
       <c r="C3" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39">
+        <v>54</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="39">
-        <v>54</v>
       </c>
       <c r="F3" s="40"/>
     </row>
@@ -2647,11 +2647,11 @@
       <c r="C4" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="39">
+        <v>54</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="39">
-        <v>54</v>
       </c>
       <c r="F4" s="40"/>
     </row>
@@ -2665,11 +2665,11 @@
       <c r="C5" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="39">
+        <v>54</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="39">
-        <v>54</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>107</v>
@@ -2685,11 +2685,11 @@
       <c r="C6" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="39">
+        <v>54</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="39">
-        <v>54</v>
       </c>
       <c r="F6" s="40"/>
     </row>
@@ -2703,11 +2703,11 @@
       <c r="C7" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39">
+        <v>54</v>
+      </c>
+      <c r="E7" s="38" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="39">
-        <v>54</v>
       </c>
       <c r="F7" s="40"/>
     </row>
@@ -2721,11 +2721,11 @@
       <c r="C8" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="39">
+        <v>54</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" s="39">
-        <v>54</v>
       </c>
       <c r="F8" s="40"/>
     </row>
@@ -2739,11 +2739,11 @@
       <c r="C9" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="39">
+        <v>54</v>
+      </c>
+      <c r="E9" s="38" t="s">
         <v>178</v>
-      </c>
-      <c r="E9" s="39">
-        <v>54</v>
       </c>
       <c r="F9" s="40"/>
     </row>
@@ -2757,11 +2757,11 @@
       <c r="C10" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="39">
+        <v>54</v>
+      </c>
+      <c r="E10" s="38" t="s">
         <v>181</v>
-      </c>
-      <c r="E10" s="39">
-        <v>54</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>78</v>
@@ -2777,11 +2777,11 @@
       <c r="C11" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="39">
+        <v>54</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>181</v>
-      </c>
-      <c r="E11" s="39">
-        <v>54</v>
       </c>
       <c r="F11" s="40"/>
     </row>
@@ -2795,11 +2795,11 @@
       <c r="C12" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="39">
+        <v>54</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>227</v>
-      </c>
-      <c r="E12" s="39">
-        <v>54</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>78</v>
@@ -2815,11 +2815,11 @@
       <c r="C13" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39">
+        <v>54</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>188</v>
-      </c>
-      <c r="E13" s="39">
-        <v>54</v>
       </c>
       <c r="F13" s="40"/>
     </row>
@@ -2833,11 +2833,11 @@
       <c r="C14" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="39">
+        <v>54</v>
+      </c>
+      <c r="E14" s="38" t="s">
         <v>191</v>
-      </c>
-      <c r="E14" s="39">
-        <v>54</v>
       </c>
       <c r="F14" s="40"/>
     </row>
@@ -2851,11 +2851,11 @@
       <c r="C15" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="39">
+        <v>54</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>16</v>
-      </c>
-      <c r="E15" s="39">
-        <v>54</v>
       </c>
       <c r="F15" s="40"/>
     </row>
@@ -2869,11 +2869,11 @@
       <c r="C16" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="39">
+        <v>54</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>23</v>
-      </c>
-      <c r="E16" s="39">
-        <v>54</v>
       </c>
       <c r="F16" s="40"/>
     </row>
@@ -2887,11 +2887,11 @@
       <c r="C17" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="39">
+        <v>54</v>
+      </c>
+      <c r="E17" s="38" t="s">
         <v>23</v>
-      </c>
-      <c r="E17" s="39">
-        <v>54</v>
       </c>
       <c r="F17" s="40"/>
     </row>
@@ -2905,11 +2905,11 @@
       <c r="C18" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="39">
+        <v>54</v>
+      </c>
+      <c r="E18" s="38" t="s">
         <v>16</v>
-      </c>
-      <c r="E18" s="39">
-        <v>54</v>
       </c>
       <c r="F18" s="40"/>
     </row>
@@ -2923,10 +2923,10 @@
       <c r="C19" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39">
-        <v>54</v>
-      </c>
+      <c r="D19" s="39">
+        <v>54</v>
+      </c>
+      <c r="E19" s="38"/>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2939,11 +2939,11 @@
       <c r="C20" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="39">
+        <v>54</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>204</v>
-      </c>
-      <c r="E20" s="39">
-        <v>54</v>
       </c>
       <c r="F20" s="40"/>
     </row>
@@ -2957,11 +2957,11 @@
       <c r="C21" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="39">
+        <v>54</v>
+      </c>
+      <c r="E21" s="38" t="s">
         <v>204</v>
-      </c>
-      <c r="E21" s="39">
-        <v>54</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -2975,11 +2975,11 @@
       <c r="C22" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="39">
+        <v>54</v>
+      </c>
+      <c r="E22" s="38" t="s">
         <v>209</v>
-      </c>
-      <c r="E22" s="39">
-        <v>54</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -2993,11 +2993,11 @@
       <c r="C23" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="39">
+        <v>54</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>14</v>
-      </c>
-      <c r="E23" s="39">
-        <v>54</v>
       </c>
       <c r="F23" s="40"/>
     </row>
@@ -3011,11 +3011,11 @@
       <c r="C24" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="39">
+        <v>54</v>
+      </c>
+      <c r="E24" s="38" t="s">
         <v>213</v>
-      </c>
-      <c r="E24" s="39">
-        <v>54</v>
       </c>
       <c r="F24" s="40" t="s">
         <v>110</v>
@@ -3031,11 +3031,11 @@
       <c r="C25" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="39">
+        <v>54</v>
+      </c>
+      <c r="E25" s="38" t="s">
         <v>216</v>
-      </c>
-      <c r="E25" s="39">
-        <v>54</v>
       </c>
       <c r="F25" s="40"/>
     </row>
@@ -3049,11 +3049,11 @@
       <c r="C26" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="39">
+        <v>54</v>
+      </c>
+      <c r="E26" s="38" t="s">
         <v>219</v>
-      </c>
-      <c r="E26" s="39">
-        <v>54</v>
       </c>
       <c r="F26" s="40"/>
     </row>
@@ -3067,11 +3067,11 @@
       <c r="C27" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="39">
+        <v>54</v>
+      </c>
+      <c r="E27" s="38" t="s">
         <v>23</v>
-      </c>
-      <c r="E27" s="39">
-        <v>54</v>
       </c>
       <c r="F27" s="40"/>
     </row>
@@ -3085,11 +3085,11 @@
       <c r="C28" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="39">
+        <v>54</v>
+      </c>
+      <c r="E28" s="38" t="s">
         <v>224</v>
-      </c>
-      <c r="E28" s="39">
-        <v>54</v>
       </c>
       <c r="F28" s="40"/>
     </row>
@@ -3103,11 +3103,11 @@
       <c r="C29" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="39">
+        <v>54</v>
+      </c>
+      <c r="E29" s="38" t="s">
         <v>228</v>
-      </c>
-      <c r="E29" s="39">
-        <v>54</v>
       </c>
       <c r="F29" s="40"/>
     </row>
@@ -3121,11 +3121,11 @@
       <c r="C30" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="39">
+        <v>54</v>
+      </c>
+      <c r="E30" s="38" t="s">
         <v>18</v>
-      </c>
-      <c r="E30" s="39">
-        <v>54</v>
       </c>
       <c r="F30" s="40"/>
     </row>
@@ -3139,11 +3139,11 @@
       <c r="C31" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="39">
+        <v>54</v>
+      </c>
+      <c r="E31" s="38" t="s">
         <v>16</v>
-      </c>
-      <c r="E31" s="39">
-        <v>54</v>
       </c>
       <c r="F31" s="40"/>
     </row>
@@ -3157,11 +3157,11 @@
       <c r="C32" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="39">
+        <v>54</v>
+      </c>
+      <c r="E32" s="38" t="s">
         <v>224</v>
-      </c>
-      <c r="E32" s="39">
-        <v>54</v>
       </c>
       <c r="F32" s="40"/>
     </row>
@@ -3175,11 +3175,11 @@
       <c r="C33" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="39">
+        <v>54</v>
+      </c>
+      <c r="E33" s="38" t="s">
         <v>23</v>
-      </c>
-      <c r="E33" s="39">
-        <v>54</v>
       </c>
       <c r="F33" s="40" t="s">
         <v>108</v>
@@ -3195,11 +3195,11 @@
       <c r="C34" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="39">
+        <v>54</v>
+      </c>
+      <c r="E34" s="38" t="s">
         <v>239</v>
-      </c>
-      <c r="E34" s="39">
-        <v>54</v>
       </c>
       <c r="F34" s="40"/>
     </row>
@@ -3213,11 +3213,11 @@
       <c r="C35" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="39">
+        <v>54</v>
+      </c>
+      <c r="E35" s="38" t="s">
         <v>18</v>
-      </c>
-      <c r="E35" s="39">
-        <v>54</v>
       </c>
       <c r="F35" s="40"/>
     </row>
@@ -3231,11 +3231,11 @@
       <c r="C36" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="39">
+        <v>54</v>
+      </c>
+      <c r="E36" s="38" t="s">
         <v>18</v>
-      </c>
-      <c r="E36" s="39">
-        <v>54</v>
       </c>
       <c r="F36" s="40"/>
     </row>
@@ -3249,11 +3249,11 @@
       <c r="C37" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="39">
+        <v>54</v>
+      </c>
+      <c r="E37" s="38" t="s">
         <v>245</v>
-      </c>
-      <c r="E37" s="39">
-        <v>54</v>
       </c>
       <c r="F37" s="40"/>
     </row>
@@ -3267,11 +3267,11 @@
       <c r="C38" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="39">
+        <v>54</v>
+      </c>
+      <c r="E38" s="38" t="s">
         <v>248</v>
-      </c>
-      <c r="E38" s="39">
-        <v>54</v>
       </c>
       <c r="F38" s="40"/>
     </row>
@@ -3285,11 +3285,11 @@
       <c r="C39" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="39">
+        <v>54</v>
+      </c>
+      <c r="E39" s="38" t="s">
         <v>251</v>
-      </c>
-      <c r="E39" s="39">
-        <v>54</v>
       </c>
       <c r="F39" s="40"/>
     </row>
@@ -3303,11 +3303,11 @@
       <c r="C40" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="39">
+        <v>54</v>
+      </c>
+      <c r="E40" s="38" t="s">
         <v>22</v>
-      </c>
-      <c r="E40" s="39">
-        <v>54</v>
       </c>
       <c r="F40" s="40"/>
     </row>
@@ -3321,11 +3321,11 @@
       <c r="C41" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="39">
+        <v>54</v>
+      </c>
+      <c r="E41" s="38" t="s">
         <v>256</v>
-      </c>
-      <c r="E41" s="39">
-        <v>54</v>
       </c>
       <c r="F41" s="40"/>
     </row>
@@ -3339,11 +3339,11 @@
       <c r="C42" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="39">
+        <v>54</v>
+      </c>
+      <c r="E42" s="38" t="s">
         <v>19</v>
-      </c>
-      <c r="E42" s="39">
-        <v>54</v>
       </c>
       <c r="F42" s="40"/>
     </row>
@@ -3357,11 +3357,11 @@
       <c r="C43" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="39">
+        <v>54</v>
+      </c>
+      <c r="E43" s="38" t="s">
         <v>23</v>
-      </c>
-      <c r="E43" s="39">
-        <v>54</v>
       </c>
       <c r="F43" s="40"/>
     </row>
@@ -3375,11 +3375,11 @@
       <c r="C44" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="39">
+        <v>54</v>
+      </c>
+      <c r="E44" s="38" t="s">
         <v>19</v>
-      </c>
-      <c r="E44" s="39">
-        <v>54</v>
       </c>
       <c r="F44" s="40"/>
     </row>
@@ -3393,11 +3393,11 @@
       <c r="C45" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="39">
+        <v>54</v>
+      </c>
+      <c r="E45" s="38" t="s">
         <v>22</v>
-      </c>
-      <c r="E45" s="39">
-        <v>54</v>
       </c>
       <c r="F45" s="40"/>
     </row>
@@ -3411,11 +3411,11 @@
       <c r="C46" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="39">
+        <v>54</v>
+      </c>
+      <c r="E46" s="38" t="s">
         <v>251</v>
-      </c>
-      <c r="E46" s="39">
-        <v>54</v>
       </c>
       <c r="F46" s="40"/>
     </row>
@@ -3429,11 +3429,11 @@
       <c r="C47" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="39">
+        <v>54</v>
+      </c>
+      <c r="E47" s="38" t="s">
         <v>248</v>
-      </c>
-      <c r="E47" s="39">
-        <v>54</v>
       </c>
       <c r="F47" s="40"/>
     </row>
@@ -3447,11 +3447,11 @@
       <c r="C48" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="39">
+        <v>54</v>
+      </c>
+      <c r="E48" s="38" t="s">
         <v>19</v>
-      </c>
-      <c r="E48" s="39">
-        <v>54</v>
       </c>
       <c r="F48" s="40"/>
     </row>
@@ -3465,11 +3465,11 @@
       <c r="C49" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="39">
+        <v>54</v>
+      </c>
+      <c r="E49" s="38" t="s">
         <v>273</v>
-      </c>
-      <c r="E49" s="39">
-        <v>54</v>
       </c>
       <c r="F49" s="40"/>
     </row>
@@ -3483,11 +3483,11 @@
       <c r="C50" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="39">
+        <v>54</v>
+      </c>
+      <c r="E50" s="38" t="s">
         <v>276</v>
-      </c>
-      <c r="E50" s="39">
-        <v>54</v>
       </c>
       <c r="F50" s="40"/>
     </row>
@@ -3501,11 +3501,11 @@
       <c r="C51" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="39">
+        <v>54</v>
+      </c>
+      <c r="E51" s="38" t="s">
         <v>22</v>
-      </c>
-      <c r="E51" s="39">
-        <v>54</v>
       </c>
       <c r="F51" s="40"/>
     </row>
@@ -3519,11 +3519,11 @@
       <c r="C52" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="39">
+        <v>54</v>
+      </c>
+      <c r="E52" s="38" t="s">
         <v>16</v>
-      </c>
-      <c r="E52" s="39">
-        <v>54</v>
       </c>
       <c r="F52" s="40"/>
     </row>
@@ -3537,11 +3537,11 @@
       <c r="C53" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="39">
+        <v>54</v>
+      </c>
+      <c r="E53" s="38" t="s">
         <v>20</v>
-      </c>
-      <c r="E53" s="39">
-        <v>54</v>
       </c>
       <c r="F53" s="40"/>
     </row>
@@ -3555,11 +3555,11 @@
       <c r="C54" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="39">
+        <v>54</v>
+      </c>
+      <c r="E54" s="38" t="s">
         <v>19</v>
-      </c>
-      <c r="E54" s="39">
-        <v>54</v>
       </c>
       <c r="F54" s="40" t="s">
         <v>109</v>
@@ -3575,11 +3575,11 @@
       <c r="C55" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="39">
+        <v>54</v>
+      </c>
+      <c r="E55" s="38" t="s">
         <v>283</v>
-      </c>
-      <c r="E55" s="39">
-        <v>54</v>
       </c>
       <c r="F55" s="40"/>
     </row>
@@ -3592,7 +3592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88EE29A-A5F1-4EDD-B2D2-BD029E8CFEAA}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3605,44 +3607,84 @@
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="40">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="40">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="40">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="40">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="40">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="40">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="40">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="40">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="40">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="40">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RutaCritica/MallaCurricular2020.xlsx
+++ b/RutaCritica/MallaCurricular2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A5F1C2-0647-4CEB-A84C-8EE78AFEB3CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04C1E32-89CF-4F80-818C-3914B67B221E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9810" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2020" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="288">
   <si>
     <t>CBM1000</t>
   </si>
@@ -635,12 +635,6 @@
   </si>
   <si>
     <t>ESTRATEGIAS DE PROGRAMACIÓN</t>
-  </si>
-  <si>
-    <t>CIT3334</t>
-  </si>
-  <si>
-    <t>ESTRUCTURAS DE DATOS COMPACTAS</t>
   </si>
   <si>
     <t>CIT3328</t>
@@ -1130,7 +1124,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{B2ADFDE5-ED7C-4043-8FB7-59A01FC772F5}"/>
   </cellStyles>
@@ -1161,7 +1155,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1459,11 +1453,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -1902,7 +1896,7 @@
         <v>75</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>89</v>
@@ -2022,7 +2016,7 @@
         <v>86</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>148</v>
@@ -2143,7 +2137,7 @@
         <v>85</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>87</v>
@@ -2360,7 +2354,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>103</v>
@@ -2400,7 +2394,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>103</v>
@@ -2460,7 +2454,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>103</v>
@@ -2480,7 +2474,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>103</v>
@@ -2500,7 +2494,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>103</v>
@@ -2520,7 +2514,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>103</v>
@@ -2572,7 +2566,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2583,13 +2577,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F44E877-0DE8-4D93-88A9-15DC654C355E}">
-  <dimension ref="A2:F55"/>
+  <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
@@ -2799,7 +2793,7 @@
         <v>54</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>78</v>
@@ -2926,7 +2920,9 @@
       <c r="D19" s="39">
         <v>54</v>
       </c>
-      <c r="E19" s="38"/>
+      <c r="E19" s="38" t="s">
+        <v>202</v>
+      </c>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,16 +2930,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="39">
+        <v>54</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>202</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="39">
-        <v>54</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>204</v>
       </c>
       <c r="F20" s="40"/>
     </row>
@@ -2961,7 +2957,7 @@
         <v>54</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -2970,16 +2966,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D22" s="39">
         <v>54</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -2988,54 +2984,54 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="39">
+        <v>54</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="39">
-        <v>54</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="40"/>
+      <c r="F23" s="40" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D24" s="39">
         <v>54</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>110</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D25" s="39">
         <v>54</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F25" s="40"/>
     </row>
@@ -3044,16 +3040,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D26" s="39">
         <v>54</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="F26" s="40"/>
     </row>
@@ -3071,7 +3067,7 @@
         <v>54</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="F27" s="40"/>
     </row>
@@ -3080,16 +3076,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D28" s="39">
         <v>54</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F28" s="40"/>
     </row>
@@ -3098,16 +3094,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D29" s="39">
         <v>54</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="F29" s="40"/>
     </row>
@@ -3125,7 +3121,7 @@
         <v>54</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F30" s="40"/>
     </row>
@@ -3134,16 +3130,16 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D31" s="39">
         <v>54</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="F31" s="40"/>
     </row>
@@ -3152,54 +3148,54 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>236</v>
+        <v>98</v>
       </c>
       <c r="D32" s="39">
         <v>54</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="F32" s="40"/>
+        <v>23</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
       <c r="D33" s="39">
         <v>54</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>108</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D34" s="39">
         <v>54</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="F34" s="40"/>
     </row>
@@ -3208,10 +3204,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="D35" s="39">
         <v>54</v>
@@ -3226,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>242</v>
@@ -3235,25 +3231,25 @@
         <v>54</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D37" s="39">
         <v>54</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F37" s="40"/>
     </row>
@@ -3262,16 +3258,16 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D38" s="39">
         <v>54</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F38" s="40"/>
     </row>
@@ -3280,16 +3276,16 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D39" s="39">
         <v>54</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="F39" s="40"/>
     </row>
@@ -3307,7 +3303,7 @@
         <v>54</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="F40" s="40"/>
     </row>
@@ -3316,16 +3312,16 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D41" s="39">
         <v>54</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>256</v>
+        <v>19</v>
       </c>
       <c r="F41" s="40"/>
     </row>
@@ -3343,7 +3339,7 @@
         <v>54</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F42" s="40"/>
     </row>
@@ -3361,7 +3357,7 @@
         <v>54</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F43" s="40"/>
     </row>
@@ -3379,7 +3375,7 @@
         <v>54</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F44" s="40"/>
     </row>
@@ -3397,7 +3393,7 @@
         <v>54</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="F45" s="40"/>
     </row>
@@ -3415,7 +3411,7 @@
         <v>54</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F46" s="40"/>
     </row>
@@ -3433,7 +3429,7 @@
         <v>54</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="F47" s="40"/>
     </row>
@@ -3451,7 +3447,7 @@
         <v>54</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="F48" s="40"/>
     </row>
@@ -3460,16 +3456,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D49" s="39">
         <v>54</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F49" s="40"/>
     </row>
@@ -3478,16 +3474,16 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D50" s="39">
         <v>54</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>276</v>
+        <v>22</v>
       </c>
       <c r="F50" s="40"/>
     </row>
@@ -3496,16 +3492,16 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="D51" s="39">
         <v>54</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F51" s="40"/>
     </row>
@@ -3514,16 +3510,16 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="D52" s="39">
         <v>54</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F52" s="40"/>
     </row>
@@ -3532,56 +3528,38 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="D53" s="39">
         <v>54</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="40"/>
+        <v>19</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="D54" s="39">
         <v>54</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>2</v>
-      </c>
-      <c r="B55" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D55" s="39">
-        <v>54</v>
-      </c>
-      <c r="E55" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="F55" s="40"/>
+      <c r="F54" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3592,11 +3570,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88EE29A-A5F1-4EDD-B2D2-BD029E8CFEAA}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" customWidth="1"/>

--- a/RutaCritica/MallaCurricular2020.xlsx
+++ b/RutaCritica/MallaCurricular2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\Protipo TdR - Alfa-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04C1E32-89CF-4F80-818C-3914B67B221E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F2F1E2-BE81-4B7F-B4D4-67F7B7556694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="4950" yWindow="3075" windowWidth="18000" windowHeight="9810" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2020" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="175">
   <si>
     <t>CBM1000</t>
   </si>
@@ -79,36 +79,12 @@
     <t>CBF1002</t>
   </si>
   <si>
-    <t>CIT2001</t>
-  </si>
-  <si>
     <t>CII2750</t>
   </si>
   <si>
-    <t>CIT2002</t>
-  </si>
-  <si>
     <t>CII1000</t>
   </si>
   <si>
-    <t>CIT2005</t>
-  </si>
-  <si>
-    <t>CIT2102</t>
-  </si>
-  <si>
-    <t>CIT2104</t>
-  </si>
-  <si>
-    <t>CIT2004</t>
-  </si>
-  <si>
-    <t>CIT2105</t>
-  </si>
-  <si>
-    <t>CIT2201</t>
-  </si>
-  <si>
     <t>Código</t>
   </si>
   <si>
@@ -499,18 +475,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>CIT3317</t>
-  </si>
-  <si>
-    <t>CIT3346</t>
-  </si>
-  <si>
-    <t>CIT3342</t>
-  </si>
-  <si>
-    <t>CIT3417</t>
-  </si>
-  <si>
     <t>Codigo</t>
   </si>
   <si>
@@ -526,45 +490,9 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>CIT3332</t>
-  </si>
-  <si>
-    <t>ANÁLISIS DE DATOS GEOGRÁFICOS</t>
-  </si>
-  <si>
-    <t>CIT3336</t>
-  </si>
-  <si>
-    <t>CIT3337</t>
-  </si>
-  <si>
-    <t>ASEGURAMIENTO DE CALIDAD</t>
-  </si>
-  <si>
     <t>Equivalencia</t>
   </si>
   <si>
-    <t>BASES DE DATOS DE GRAN VOLUMEN</t>
-  </si>
-  <si>
-    <t>CIT3343</t>
-  </si>
-  <si>
-    <t>BIOINFORMÁTICA</t>
-  </si>
-  <si>
-    <t>CIT3338</t>
-  </si>
-  <si>
-    <t>COMPRESIÓN DE DATOS</t>
-  </si>
-  <si>
-    <t>CIT3320</t>
-  </si>
-  <si>
-    <t>CONTINUIDAD DE NEGOCIOS</t>
-  </si>
-  <si>
     <t>CIT3350</t>
   </si>
   <si>
@@ -574,36 +502,6 @@
     <t>CIT2003, CIT2104, CIT2010, CIT2109</t>
   </si>
   <si>
-    <t>CIT3322</t>
-  </si>
-  <si>
-    <t>DESARROLLO DE APLICACIONES MÓVILES</t>
-  </si>
-  <si>
-    <t>CIT2004, CIT2005</t>
-  </si>
-  <si>
-    <t>CIT3315</t>
-  </si>
-  <si>
-    <t>DESARROLLO DE SOFTWARE DIRIGIDO POR MODE</t>
-  </si>
-  <si>
-    <t>CIT3323</t>
-  </si>
-  <si>
-    <t>DESARROLLO WEB</t>
-  </si>
-  <si>
-    <t>CIT3329</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN Y CONTROL DE PROYECTOS TECNOLÓ</t>
-  </si>
-  <si>
-    <t>CIT1000, CIT2201, CIT2203</t>
-  </si>
-  <si>
     <t>CIT3347</t>
   </si>
   <si>
@@ -613,45 +511,6 @@
     <t>CIT2012, CIT2005</t>
   </si>
   <si>
-    <t>CIT3330</t>
-  </si>
-  <si>
-    <t>DISEÑO DE SISTEMAS TRANSACCIONALES</t>
-  </si>
-  <si>
-    <t>CIT3341</t>
-  </si>
-  <si>
-    <t>E-BUSINESS</t>
-  </si>
-  <si>
-    <t>CIT3331</t>
-  </si>
-  <si>
-    <t>EMPRENDIMIENTO TIC</t>
-  </si>
-  <si>
-    <t>CIT3327</t>
-  </si>
-  <si>
-    <t>ESTRATEGIAS DE PROGRAMACIÓN</t>
-  </si>
-  <si>
-    <t>CIT3328</t>
-  </si>
-  <si>
-    <t>GESTIÓN EN INNOVACIÓN TECNOLÓGICA</t>
-  </si>
-  <si>
-    <t>CIT2201, CIT2203</t>
-  </si>
-  <si>
-    <t>CIT3340</t>
-  </si>
-  <si>
-    <t>GESTION ESTRATÉGICA PARA INFORMÁTICA</t>
-  </si>
-  <si>
     <t>CIT3349</t>
   </si>
   <si>
@@ -661,18 +520,6 @@
     <t>CII2750, CIT2204, CIT2007, CIT2002</t>
   </si>
   <si>
-    <t>CIT3318</t>
-  </si>
-  <si>
-    <t>IMPLEMENTACIÓN DE ALGORITMOS</t>
-  </si>
-  <si>
-    <t>INTELIGENCIA ARTIFICIAL</t>
-  </si>
-  <si>
-    <t>CBM1006, CIT2002, CIT2005, CIT2204</t>
-  </si>
-  <si>
     <t>CIT3325</t>
   </si>
   <si>
@@ -682,66 +529,6 @@
     <t>CIT2005, CIT2012</t>
   </si>
   <si>
-    <t>CIT3335</t>
-  </si>
-  <si>
-    <t>INTERFACE HUMANE MÁQUINA</t>
-  </si>
-  <si>
-    <t>CIT2005, CIT2104</t>
-  </si>
-  <si>
-    <t>CIT3321</t>
-  </si>
-  <si>
-    <t>MINERÍA DE DATOS Y PROCESAMIENTO DE LENG</t>
-  </si>
-  <si>
-    <t>CIT3319</t>
-  </si>
-  <si>
-    <t>MODELOS CENTRADOS EN EL USUARIO</t>
-  </si>
-  <si>
-    <t>CIT2005, CIT2202</t>
-  </si>
-  <si>
-    <t>CIT3344</t>
-  </si>
-  <si>
-    <t>PROC DE DATOS Y TEC DE MACHINE LEARNING</t>
-  </si>
-  <si>
-    <t>CIT2002, CIT2200</t>
-  </si>
-  <si>
-    <t>CIT2002, CIT2202</t>
-  </si>
-  <si>
-    <t>CIT3345</t>
-  </si>
-  <si>
-    <t>PROCESOS ÁGILES</t>
-  </si>
-  <si>
-    <t>CIT3314</t>
-  </si>
-  <si>
-    <t>RECONOCIMIENTO DE PATRONES</t>
-  </si>
-  <si>
-    <t>CIT3414</t>
-  </si>
-  <si>
-    <t>SISTEMA DE ALTA DISPONIBILIDAD</t>
-  </si>
-  <si>
-    <t>CIT3316</t>
-  </si>
-  <si>
-    <t>SISTEMA DE RECOMENDACIÓN</t>
-  </si>
-  <si>
     <t>CIT3348</t>
   </si>
   <si>
@@ -751,138 +538,6 @@
     <t>CIT2005, CIT3100</t>
   </si>
   <si>
-    <t>CIT3339</t>
-  </si>
-  <si>
-    <t>TÉCNICAS AGILES Y AUTOMATICAS PARA PROYE</t>
-  </si>
-  <si>
-    <t>VIDEO JUEGOS</t>
-  </si>
-  <si>
-    <t>CIT3326</t>
-  </si>
-  <si>
-    <t>VISIÓN POR COMPUTADOR</t>
-  </si>
-  <si>
-    <t>CIT2003, CIT2102</t>
-  </si>
-  <si>
-    <t>CIT3425</t>
-  </si>
-  <si>
-    <t>ANÁLISIS Y CONFIG. DE SERVICIOS EN RED</t>
-  </si>
-  <si>
-    <t>CIT2100, CIT2105</t>
-  </si>
-  <si>
-    <t>CIT3426</t>
-  </si>
-  <si>
-    <t>ANÁLISIS Y SIMULACIÓN DE SIST. COMUNIC.</t>
-  </si>
-  <si>
-    <t>CIT2100, CIT2102</t>
-  </si>
-  <si>
-    <t>CIT3424</t>
-  </si>
-  <si>
-    <t>CODIFICACIÓN Y ELEMENTOS DE CRIPTOGRAFÍA</t>
-  </si>
-  <si>
-    <t>CIT3422</t>
-  </si>
-  <si>
-    <t>COMPOSICIÓN MUSICAL ASISTIDA POR COMPUT.</t>
-  </si>
-  <si>
-    <t>CIT2102, CIT2201</t>
-  </si>
-  <si>
-    <t>CIT3421</t>
-  </si>
-  <si>
-    <t>COMUNICACIONES DIGITALES AVANZADAS</t>
-  </si>
-  <si>
-    <t>CIT3427</t>
-  </si>
-  <si>
-    <t>INTERNET DE LAS COSAS</t>
-  </si>
-  <si>
-    <t>CIT3428</t>
-  </si>
-  <si>
-    <t>MÉT. EN DISEÑO DE REDES DE COMUNIC.</t>
-  </si>
-  <si>
-    <t>CIT3416</t>
-  </si>
-  <si>
-    <t>PROCESAMIENTO DIGITAL DE SEÑALES</t>
-  </si>
-  <si>
-    <t>CIT3429</t>
-  </si>
-  <si>
-    <t>PROTOCOLOS DE ENRUTAMIENTO</t>
-  </si>
-  <si>
-    <t>CIT3419</t>
-  </si>
-  <si>
-    <t>REDES DE DATOS AVANZADAS</t>
-  </si>
-  <si>
-    <t>CIT3431</t>
-  </si>
-  <si>
-    <t>REDES MÓVILES CELULARES</t>
-  </si>
-  <si>
-    <t>CIT3420</t>
-  </si>
-  <si>
-    <t>REDES ÓPTICAS DE DATOS</t>
-  </si>
-  <si>
-    <t>CIT2100, CIT2104</t>
-  </si>
-  <si>
-    <t>CIT3430</t>
-  </si>
-  <si>
-    <t>REGULACIÓN DE TICS</t>
-  </si>
-  <si>
-    <t>CIT2102, FIC1003</t>
-  </si>
-  <si>
-    <t>CIT3415</t>
-  </si>
-  <si>
-    <t>SEGURIDAD Y PENTESTING DE APLICACIONES</t>
-  </si>
-  <si>
-    <t>CIT3418</t>
-  </si>
-  <si>
-    <t>SISTEMA EMBEBIDOS</t>
-  </si>
-  <si>
-    <t>CIT3423</t>
-  </si>
-  <si>
-    <t>TELEVISIÓN DIGITAL</t>
-  </si>
-  <si>
-    <t>CIT2102, CIT2200</t>
-  </si>
-  <si>
     <t>INGLÉS GENERAL I</t>
   </si>
   <si>
@@ -899,6 +554,12 @@
   </si>
   <si>
     <t>CIT34XX</t>
+  </si>
+  <si>
+    <t>CIG1003</t>
+  </si>
+  <si>
+    <t>CIG1002</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1072,13 +733,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1122,9 +796,14 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{B2ADFDE5-ED7C-4043-8FB7-59A01FC772F5}"/>
   </cellStyles>
@@ -1155,7 +834,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1454,10 +1133,10 @@
   <dimension ref="A2:J56"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F35"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -1470,22 +1149,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1496,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1516,16 +1195,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E4" s="21">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1536,16 +1215,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E5" s="21">
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1556,16 +1235,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E6" s="21">
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1576,16 +1255,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E7" s="21">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1596,16 +1275,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E8" s="22">
         <v>2</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1616,16 +1295,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E9" s="22">
         <v>2</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1636,16 +1315,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1656,16 +1335,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E11" s="22">
         <v>2</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,19 +1352,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E12" s="22">
         <v>2</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1696,16 +1375,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E13" s="23">
         <v>3</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1716,16 +1395,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E14" s="23">
         <v>3</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1736,16 +1415,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E15" s="23">
         <v>3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1753,19 +1432,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E16" s="23">
         <v>3</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1773,19 +1452,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E17" s="23">
         <v>3</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1796,16 +1475,16 @@
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E18" s="24">
         <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1813,19 +1492,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E19" s="24">
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1836,16 +1515,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E20" s="24">
         <v>4</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1853,19 +1532,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E21" s="24">
         <v>4</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1873,19 +1552,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E22" s="24">
         <v>4</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1893,19 +1572,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E23" s="24">
         <v>4</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1913,19 +1592,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E24" s="25">
         <v>5</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1933,19 +1612,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E25" s="25">
         <v>5</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1953,19 +1632,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E26" s="25">
         <v>5</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1973,19 +1652,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E27" s="25">
         <v>5</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1993,19 +1672,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E28" s="25">
         <v>5</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2013,19 +1692,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E29" s="25">
         <v>5</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J29" s="31"/>
     </row>
@@ -2034,19 +1713,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2054,19 +1733,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2074,19 +1753,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E32" s="26">
         <v>6</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2094,19 +1773,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E33" s="26">
         <v>6</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2114,19 +1793,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E34" s="26">
         <v>6</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2134,19 +1813,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E35" s="26">
         <v>6</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2154,19 +1833,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E36" s="27">
         <v>7</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2174,19 +1853,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E37" s="27">
         <v>7</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2194,19 +1873,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E38" s="27">
         <v>7</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2214,19 +1893,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E39" s="27">
         <v>7</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,19 +1913,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E40" s="27">
         <v>7</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2254,19 +1933,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E41" s="28">
         <v>8</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2274,19 +1953,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E42" s="28">
         <v>8</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2294,19 +1973,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E43" s="28">
         <v>8</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2314,19 +1993,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E44" s="28">
         <v>8</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2334,19 +2013,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E45" s="28">
         <v>8</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2354,19 +2033,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E46" s="29">
         <v>9</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2374,19 +2053,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E47" s="29">
         <v>9</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2394,19 +2073,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E48" s="29">
         <v>9</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2414,19 +2093,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E49" s="29">
         <v>9</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2434,19 +2113,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E50" s="29">
         <v>9</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2454,19 +2133,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E51" s="30">
         <v>10</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2474,19 +2153,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E52" s="30">
         <v>10</v>
       </c>
       <c r="F52" s="34" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2494,19 +2173,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E53" s="30">
         <v>10</v>
       </c>
       <c r="F53" s="34" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2514,19 +2193,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E54" s="30">
         <v>10</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2534,19 +2213,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E55" s="30">
         <v>10</v>
       </c>
       <c r="F55" s="34" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2554,19 +2233,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E56" s="30">
         <v>11</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2577,13 +2256,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F44E877-0DE8-4D93-88A9-15DC654C355E}">
-  <dimension ref="A2:F54"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
@@ -2595,22 +2274,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2618,16 +2297,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D3" s="39">
         <v>54</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="F3" s="40"/>
     </row>
@@ -2636,16 +2315,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D4" s="39">
         <v>54</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="F4" s="40"/>
     </row>
@@ -2654,36 +2333,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D5" s="39">
         <v>54</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>107</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D6" s="39">
         <v>54</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="F6" s="40"/>
     </row>
@@ -2692,874 +2369,18 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D7" s="39">
         <v>54</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="39">
-        <v>54</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="40"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="39">
-        <v>54</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="40"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="39">
-        <v>54</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="39">
-        <v>54</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="40"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="39">
-        <v>54</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="39">
-        <v>54</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="F13" s="40"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="39">
-        <v>54</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="40"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D15" s="39">
-        <v>54</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="40"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>1</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="39">
-        <v>54</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="40"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>1</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="39">
-        <v>54</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="40"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="39">
-        <v>54</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="40"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>1</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D19" s="39">
-        <v>54</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" s="40"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>1</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="39">
-        <v>54</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20" s="40"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>1</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="39">
-        <v>54</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="40"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>1</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="39">
-        <v>54</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="40"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D23" s="39">
-        <v>54</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>1</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="39">
-        <v>54</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="40"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>1</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="39">
-        <v>54</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" s="40"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>1</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="39">
-        <v>54</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="40"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>1</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D27" s="39">
-        <v>54</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="F27" s="40"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>1</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D28" s="39">
-        <v>54</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="F28" s="40"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>1</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D29" s="39">
-        <v>54</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="40"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>1</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D30" s="39">
-        <v>54</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="40"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>1</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D31" s="39">
-        <v>54</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" s="40"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>1</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="39">
-        <v>54</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>1</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="39">
-        <v>54</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="F33" s="40"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>1</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" s="39">
-        <v>54</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="40"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>1</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" s="39">
-        <v>54</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="40"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>1</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D36" s="39">
-        <v>54</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="F36" s="40"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <v>2</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D37" s="39">
-        <v>54</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="F37" s="40"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>2</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D38" s="39">
-        <v>54</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="F38" s="40"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>2</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D39" s="39">
-        <v>54</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="40"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>2</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D40" s="39">
-        <v>54</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="F40" s="40"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>2</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D41" s="39">
-        <v>54</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="40"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>2</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D42" s="39">
-        <v>54</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="40"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>2</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D43" s="39">
-        <v>54</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="40"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>2</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D44" s="39">
-        <v>54</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="40"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>2</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D45" s="39">
-        <v>54</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="F45" s="40"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
-        <v>2</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46" s="39">
-        <v>54</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="F46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <v>2</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D47" s="39">
-        <v>54</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="40"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <v>2</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D48" s="39">
-        <v>54</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="F48" s="40"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>2</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D49" s="39">
-        <v>54</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="F49" s="40"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <v>2</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D50" s="39">
-        <v>54</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="40"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>2</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D51" s="39">
-        <v>54</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>2</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D52" s="39">
-        <v>54</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="40"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>2</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="39">
-        <v>54</v>
-      </c>
-      <c r="E53" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>2</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D54" s="39">
-        <v>54</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="F54" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3570,11 +2391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88EE29A-A5F1-4EDD-B2D2-BD029E8CFEAA}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" customWidth="1"/>
@@ -3585,19 +2406,19 @@
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0</v>
+      <c r="A2" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
+      <c r="A3" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/RutaCritica/MallaCurricular2020.xlsx
+++ b/RutaCritica/MallaCurricular2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\Protipo TdR - Alfa-v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F2F1E2-BE81-4B7F-B4D4-67F7B7556694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EAEEB3-8CCE-4ED9-9155-7EBF709AAA79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="3075" windowWidth="18000" windowHeight="9810" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2020" sheetId="1" r:id="rId1"/>
@@ -1132,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,7 +2392,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RutaCritica/MallaCurricular2020.xlsx
+++ b/RutaCritica/MallaCurricular2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EAEEB3-8CCE-4ED9-9155-7EBF709AAA79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC4AD9E-EFD7-4D3D-B00A-9C48CD406FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2020" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="193">
   <si>
     <t>CBM1000</t>
   </si>
@@ -103,9 +103,6 @@
     <t>29, 30</t>
   </si>
   <si>
-    <t>CFG</t>
-  </si>
-  <si>
     <t>MECÁNICA</t>
   </si>
   <si>
@@ -322,9 +319,6 @@
     <t>EVALUACION DE PROYECTOS TIC</t>
   </si>
   <si>
-    <t>ELECTIVO PROFESIONAL</t>
-  </si>
-  <si>
     <t>ARQUITECTURAS EMERGENTES</t>
   </si>
   <si>
@@ -550,16 +544,76 @@
     <t>3, 5, 10, 26, 29, 32, 33, 34, 38, 39, 40, 41, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53</t>
   </si>
   <si>
-    <t>CIT33XX</t>
-  </si>
-  <si>
-    <t>CIT34XX</t>
-  </si>
-  <si>
     <t>CIG1003</t>
   </si>
   <si>
     <t>CIG1002</t>
+  </si>
+  <si>
+    <t>CIT3310</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 1</t>
+  </si>
+  <si>
+    <t>CIT3410</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 1</t>
+  </si>
+  <si>
+    <t>PRÁCTICA PROFESIONAL 1</t>
+  </si>
+  <si>
+    <t>PRÁCTICA PROFESIONAL 2</t>
+  </si>
+  <si>
+    <t>CIT4001</t>
+  </si>
+  <si>
+    <t>CIT4002</t>
+  </si>
+  <si>
+    <t>CIT3311</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 2</t>
+  </si>
+  <si>
+    <t>CIT3411</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 2</t>
+  </si>
+  <si>
+    <t>CIT3312</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 3</t>
+  </si>
+  <si>
+    <t>CIT3412</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 3</t>
+  </si>
+  <si>
+    <t>3, 5, 10, 15, 16, 17, 18, 19 , 20, 21</t>
+  </si>
+  <si>
+    <t>22, 25, 26, 29, 32, 33, 35, 38, 39, 40, 41, 42, 43</t>
+  </si>
+  <si>
+    <t>CFG-1</t>
+  </si>
+  <si>
+    <t>CFG-2</t>
+  </si>
+  <si>
+    <t>CFG-3</t>
+  </si>
+  <si>
+    <t>CFG-4</t>
   </si>
 </sst>
 </file>
@@ -604,7 +658,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +748,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -752,7 +812,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -801,6 +861,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
@@ -1130,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
-  <dimension ref="A2:J56"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,1111 +1241,1141 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="4" max="4" width="27" style="57" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="35" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>56</v>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="D3" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="21">
         <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="21">
         <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="21">
+        <v>34</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="21">
         <v>1</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="21">
+        <v>45</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>145</v>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="D8" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="22">
         <v>2</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="22">
+        <v>22</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="22">
         <v>2</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="22">
+        <v>35</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="22">
         <v>2</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="22">
-        <v>2</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="22">
-        <v>2</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>145</v>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="23">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="D13" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="23">
         <v>3</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="23">
+        <v>23</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="23">
         <v>3</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="23">
+        <v>83</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="23">
         <v>3</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="23">
-        <v>3</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="23">
-        <v>3</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>107</v>
+      <c r="F17" s="24">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="24">
+      <c r="D18" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="24">
         <v>4</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="24">
+        <v>24</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="24">
         <v>4</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="24">
+        <v>36</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="24">
         <v>4</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="24">
+        <v>84</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="24">
         <v>4</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="24">
+        <v>165</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="24">
         <v>4</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="24">
-        <v>4</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>145</v>
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="25">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="25">
+        <v>85</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="25">
         <v>5</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="25">
+        <v>43</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="25">
         <v>5</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="25">
+        <v>86</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="25">
         <v>5</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="25">
+        <v>190</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="25">
         <v>5</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="25">
+        <v>166</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="25">
         <v>5</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>145</v>
-      </c>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="25">
-        <v>5</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J29" s="31"/>
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="26">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="26">
+        <v>87</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="26">
         <v>6</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="26">
+        <v>40</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="26">
         <v>6</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="26">
+        <v>37</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="26">
         <v>6</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="26">
+        <v>191</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="26">
         <v>6</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="26">
+        <v>167</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="26">
         <v>6</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="26">
-        <v>6</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>81</v>
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="27">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="27">
+      <c r="D36" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="27">
         <v>7</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" s="27">
+        <v>41</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="27">
         <v>7</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="27">
+        <v>38</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="27">
         <v>7</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" s="27">
-        <v>7</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>38</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="27">
-        <v>7</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>145</v>
+      <c r="B40" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="28">
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" s="28">
+      <c r="D41" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="28">
         <v>8</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="28">
+        <v>42</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="28">
         <v>8</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" s="28">
+        <v>92</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="28">
         <v>8</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="28">
+      <c r="D44" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="28">
         <v>8</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>43</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="28">
-        <v>8</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>122</v>
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="29">
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="29">
         <v>9</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="29">
+        <v>174</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="29">
         <v>9</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="29">
+      <c r="D48" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="29">
         <v>9</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="29">
+        <v>96</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="29">
         <v>9</v>
       </c>
-      <c r="F49" s="20" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>48</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="29">
-        <v>9</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>124</v>
+      <c r="A50" s="10">
+        <v>49</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="30">
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>49</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E51" s="30">
+        <v>50</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="30">
         <v>10</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>50</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="30">
+        <v>51</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="30">
         <v>10</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>51</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53" s="30">
-        <v>10</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>145</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>52</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="30">
+        <v>53</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="30">
         <v>10</v>
       </c>
-      <c r="F54" s="34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="44">
+        <v>54</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="44">
+        <v>55</v>
+      </c>
+      <c r="B56" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+    </row>
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>99</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" s="30">
-        <v>10</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
-        <v>54</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="E56" s="30">
+      <c r="C57" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="30">
         <v>11</v>
-      </c>
-      <c r="F56" s="36" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2274,22 +2404,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>149</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,16 +2427,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" s="39">
         <v>54</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F3" s="40"/>
     </row>
@@ -2315,16 +2445,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D4" s="39">
         <v>54</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F4" s="40"/>
     </row>
@@ -2333,16 +2463,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D5" s="39">
         <v>54</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F5" s="40"/>
     </row>
@@ -2351,16 +2481,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="39">
         <v>54</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F6" s="40"/>
     </row>
@@ -2369,16 +2499,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" s="39">
         <v>54</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F7" s="40"/>
     </row>
@@ -2391,7 +2521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88EE29A-A5F1-4EDD-B2D2-BD029E8CFEAA}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2407,18 +2537,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/RutaCritica/MallaCurricular2020.xlsx
+++ b/RutaCritica/MallaCurricular2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC4AD9E-EFD7-4D3D-B00A-9C48CD406FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B0B412-6FF9-4303-8E9C-AD86EC7CDA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
@@ -541,9 +541,6 @@
     <t>INGLÉS GENERAL III</t>
   </si>
   <si>
-    <t>3, 5, 10, 26, 29, 32, 33, 34, 38, 39, 40, 41, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53</t>
-  </si>
-  <si>
     <t>CIG1003</t>
   </si>
   <si>
@@ -614,6 +611,9 @@
   </si>
   <si>
     <t>CFG-4</t>
+  </si>
+  <si>
+    <t>3, 5, 10, 26, 29, 32, 33, 34, 38, 39, 40, 41, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,10 +1452,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>143</v>
@@ -1772,10 +1772,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D27" s="50" t="s">
         <v>143</v>
@@ -1893,10 +1893,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D33" s="52" t="s">
         <v>143</v>
@@ -2013,10 +2013,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D39" s="53" t="s">
         <v>143</v>
@@ -2133,10 +2133,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="D45" s="55" t="s">
         <v>143</v>
@@ -2173,10 +2173,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="D47" s="55" t="s">
         <v>143</v>
@@ -2233,10 +2233,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="34" t="s">
         <v>179</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>180</v>
       </c>
       <c r="D50" s="36" t="s">
         <v>143</v>
@@ -2253,10 +2253,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="34" t="s">
         <v>181</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>182</v>
       </c>
       <c r="D51" s="36" t="s">
         <v>143</v>
@@ -2273,10 +2273,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>185</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>186</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>143</v>
@@ -2293,10 +2293,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="34" t="s">
         <v>183</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>184</v>
       </c>
       <c r="D53" s="36" t="s">
         <v>143</v>
@@ -2331,13 +2331,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" s="56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E55" s="44"/>
       <c r="F55" s="44"/>
@@ -2347,13 +2347,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>
@@ -2369,7 +2369,7 @@
         <v>53</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="E57" s="34" t="s">
         <v>143</v>
@@ -2540,7 +2540,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,7 +2548,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/RutaCritica/MallaCurricular2020.xlsx
+++ b/RutaCritica/MallaCurricular2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B0B412-6FF9-4303-8E9C-AD86EC7CDA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143F334E-0D59-4C93-9390-3AF562E6A332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
@@ -613,7 +613,7 @@
     <t>CFG-4</t>
   </si>
   <si>
-    <t>3, 5, 10, 26, 29, 32, 33, 34, 38, 39, 40, 41, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55</t>
+    <t>44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,7 +2358,7 @@
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>
     </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>99</v>
       </c>

--- a/RutaCritica/MallaCurricular2020.xlsx
+++ b/RutaCritica/MallaCurricular2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143F334E-0D59-4C93-9390-3AF562E6A332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D95EA1E-3FD6-4CA6-B243-D1384DBA8FC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2020" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="197">
   <si>
     <t>CBM1000</t>
   </si>
@@ -568,9 +568,6 @@
     <t>CIT4001</t>
   </si>
   <si>
-    <t>CIT4002</t>
-  </si>
-  <si>
     <t>CIT3311</t>
   </si>
   <si>
@@ -614,6 +611,21 @@
   </si>
   <si>
     <t>44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55</t>
+  </si>
+  <si>
+    <t>CFG1</t>
+  </si>
+  <si>
+    <t>CFG2</t>
+  </si>
+  <si>
+    <t>CFG3</t>
+  </si>
+  <si>
+    <t>CFG4</t>
+  </si>
+  <si>
+    <t>CIT4000</t>
   </si>
 </sst>
 </file>
@@ -903,7 +915,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{B2ADFDE5-ED7C-4043-8FB7-59A01FC772F5}"/>
   </cellStyles>
@@ -934,7 +946,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1232,11 +1244,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -1452,10 +1464,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>143</v>
@@ -1772,10 +1784,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D27" s="50" t="s">
         <v>143</v>
@@ -1893,10 +1905,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D33" s="52" t="s">
         <v>143</v>
@@ -2013,10 +2025,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D39" s="53" t="s">
         <v>143</v>
@@ -2233,10 +2245,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="34" t="s">
         <v>178</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>179</v>
       </c>
       <c r="D50" s="36" t="s">
         <v>143</v>
@@ -2253,10 +2265,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="34" t="s">
         <v>180</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>181</v>
       </c>
       <c r="D51" s="36" t="s">
         <v>143</v>
@@ -2273,10 +2285,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>184</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>185</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>143</v>
@@ -2293,10 +2305,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="34" t="s">
         <v>182</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>183</v>
       </c>
       <c r="D53" s="36" t="s">
         <v>143</v>
@@ -2331,13 +2343,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="C55" s="44" t="s">
         <v>174</v>
       </c>
       <c r="D55" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E55" s="44"/>
       <c r="F55" s="44"/>
@@ -2347,13 +2359,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C56" s="44" t="s">
         <v>175</v>
       </c>
       <c r="D56" s="56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>
@@ -2369,7 +2381,7 @@
         <v>53</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E57" s="34" t="s">
         <v>143</v>
@@ -2392,7 +2404,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
@@ -2525,7 +2537,7 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" customWidth="1"/>
